--- a/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_MultiIndexMarket.xlsx
+++ b/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_MultiIndexMarket.xlsx
@@ -13,7 +13,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="anscount" hidden="1">1</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>General Settings</t>
   </si>
@@ -165,6 +164,9 @@
   <si>
     <t>Currency</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +180,7 @@
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -808,22 +810,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1118,7 +1104,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="23" customWidth="1"/>
@@ -1130,13 +1116,13 @@
     <col min="8" max="16384" width="8" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="12.75">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" ht="15.75">
+    <row r="3" spans="1:5" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="73" t="s">
         <v>0</v>
@@ -1145,14 +1131,14 @@
       <c r="D3" s="74"/>
       <c r="E3" s="75"/>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="49"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="50"/>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="49"/>
       <c r="C5" s="28" t="s">
@@ -1161,7 +1147,7 @@
       <c r="D5" s="29"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="49"/>
       <c r="C6" s="28" t="s">
@@ -1172,7 +1158,7 @@
       </c>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="49"/>
       <c r="C7" s="28" t="s">
@@ -1183,7 +1169,7 @@
       </c>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="49"/>
       <c r="C8" s="28" t="s">
@@ -1194,19 +1180,18 @@
       </c>
       <c r="E8" s="51"/>
     </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="49"/>
       <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="31" t="str">
-        <f>[2]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\050_CalibrateCMSMarket\</v>
+      <c r="D9" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="51"/>
     </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="10" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="49"/>
       <c r="C10" s="28" t="s">
@@ -1217,14 +1202,14 @@
       </c>
       <c r="E10" s="51"/>
     </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" ht="12.75">
+    <row r="11" spans="1:5" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="52"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="73" t="s">
         <v>24</v>
       </c>
@@ -1232,13 +1217,13 @@
       <c r="D13" s="74"/>
       <c r="E13" s="75"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="44"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="45"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="44"/>
       <c r="C15" s="13" t="s">
         <v>39</v>
@@ -1248,7 +1233,7 @@
       </c>
       <c r="E15" s="45"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="44"/>
       <c r="C16" s="13" t="s">
         <v>11</v>
@@ -1259,7 +1244,7 @@
       </c>
       <c r="E16" s="45"/>
     </row>
-    <row r="17" spans="2:5" ht="12.75">
+    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
         <v>10</v>
@@ -1270,7 +1255,7 @@
       </c>
       <c r="E17" s="45"/>
     </row>
-    <row r="18" spans="2:5" ht="12.75">
+    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="44"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
@@ -1280,7 +1265,7 @@
       </c>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="2:5" ht="12.75">
+    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="44"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
@@ -1290,7 +1275,7 @@
       </c>
       <c r="E19" s="45"/>
     </row>
-    <row r="20" spans="2:5" ht="12.75">
+    <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -1328,7 +1313,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="2" customWidth="1"/>
@@ -1339,8 +1324,8 @@
     <col min="7" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" ht="12" thickBot="1"/>
-    <row r="2" spans="1:96" s="1" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:96" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:96" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1333,7 @@
       <c r="D2" s="77"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:96">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -1446,7 +1431,7 @@
       <c r="CQ3" s="1"/>
       <c r="CR3" s="1"/>
     </row>
-    <row r="4" spans="1:96" ht="12" customHeight="1">
+    <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="81" t="s">
@@ -1548,7 +1533,7 @@
       <c r="CQ4" s="1"/>
       <c r="CR4" s="1"/>
     </row>
-    <row r="5" spans="1:96">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="79"/>
@@ -1648,7 +1633,7 @@
       <c r="CQ5" s="1"/>
       <c r="CR5" s="1"/>
     </row>
-    <row r="6" spans="1:96">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="79"/>
@@ -1748,7 +1733,7 @@
       <c r="CQ6" s="1"/>
       <c r="CR6" s="1"/>
     </row>
-    <row r="7" spans="1:96">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="79"/>
@@ -1848,7 +1833,7 @@
       <c r="CQ7" s="1"/>
       <c r="CR7" s="1"/>
     </row>
-    <row r="8" spans="1:96">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="79"/>
@@ -1948,7 +1933,7 @@
       <c r="CQ8" s="1"/>
       <c r="CR8" s="1"/>
     </row>
-    <row r="9" spans="1:96">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="41" t="s">
@@ -2050,7 +2035,7 @@
       <c r="CQ9" s="1"/>
       <c r="CR9" s="1"/>
     </row>
-    <row r="10" spans="1:96">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="81" t="s">
@@ -2153,7 +2138,7 @@
       <c r="CQ10" s="1"/>
       <c r="CR10" s="1"/>
     </row>
-    <row r="11" spans="1:96">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="82"/>
@@ -2254,7 +2239,7 @@
       <c r="CQ11" s="1"/>
       <c r="CR11" s="1"/>
     </row>
-    <row r="12" spans="1:96">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="82"/>
@@ -2355,7 +2340,7 @@
       <c r="CQ12" s="1"/>
       <c r="CR12" s="1"/>
     </row>
-    <row r="13" spans="1:96">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="82"/>
@@ -2456,7 +2441,7 @@
       <c r="CQ13" s="1"/>
       <c r="CR13" s="1"/>
     </row>
-    <row r="14" spans="1:96">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="83"/>
@@ -2557,7 +2542,7 @@
       <c r="CQ14" s="1"/>
       <c r="CR14" s="1"/>
     </row>
-    <row r="15" spans="1:96">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="8"/>
       <c r="C15" s="79" t="s">
@@ -2663,7 +2648,7 @@
       <c r="CQ15" s="1"/>
       <c r="CR15" s="1"/>
     </row>
-    <row r="16" spans="1:96">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="8"/>
       <c r="C16" s="79"/>
@@ -2767,7 +2752,7 @@
       <c r="CQ16" s="1"/>
       <c r="CR16" s="1"/>
     </row>
-    <row r="17" spans="1:96">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="79"/>
@@ -2871,7 +2856,7 @@
       <c r="CQ17" s="1"/>
       <c r="CR17" s="1"/>
     </row>
-    <row r="18" spans="1:96">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="79"/>
@@ -2975,7 +2960,7 @@
       <c r="CQ18" s="1"/>
       <c r="CR18" s="1"/>
     </row>
-    <row r="19" spans="1:96">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="80"/>
@@ -3079,7 +3064,7 @@
       <c r="CQ19" s="1"/>
       <c r="CR19" s="1"/>
     </row>
-    <row r="20" spans="1:96">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="8"/>
       <c r="E20" s="9"/>
@@ -3175,7 +3160,7 @@
       <c r="CQ20" s="1"/>
       <c r="CR20" s="1"/>
     </row>
-    <row r="21" spans="1:96">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="8"/>
       <c r="C21" s="34" t="s">
@@ -3278,7 +3263,7 @@
       <c r="CQ21" s="1"/>
       <c r="CR21" s="1"/>
     </row>
-    <row r="22" spans="1:96">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="8"/>
       <c r="C22" s="35" t="s">
@@ -3381,7 +3366,7 @@
       <c r="CQ22" s="1"/>
       <c r="CR22" s="1"/>
     </row>
-    <row r="23" spans="1:96">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
       <c r="C23" s="35" t="s">
@@ -3484,7 +3469,7 @@
       <c r="CQ23" s="1"/>
       <c r="CR23" s="1"/>
     </row>
-    <row r="24" spans="1:96">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
       <c r="C24" s="35" t="s">
@@ -3587,7 +3572,7 @@
       <c r="CQ24" s="1"/>
       <c r="CR24" s="1"/>
     </row>
-    <row r="25" spans="1:96">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
       <c r="C25" s="36" t="s">
@@ -3690,7 +3675,7 @@
       <c r="CQ25" s="1"/>
       <c r="CR25" s="1"/>
     </row>
-    <row r="26" spans="1:96" ht="12" customHeight="1">
+    <row r="26" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="8"/>
       <c r="C26" s="33" t="s">
@@ -3793,7 +3778,7 @@
       <c r="CQ26" s="1"/>
       <c r="CR26" s="1"/>
     </row>
-    <row r="27" spans="1:96" ht="12" thickBot="1">
+    <row r="27" spans="1:96" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="10"/>
       <c r="C27" s="3"/>
@@ -3894,7 +3879,7 @@
       <c r="CQ27" s="1"/>
       <c r="CR27" s="1"/>
     </row>
-    <row r="28" spans="1:96" ht="12" thickBot="1">
+    <row r="28" spans="1:96" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3992,7 +3977,7 @@
       <c r="CQ28" s="1"/>
       <c r="CR28" s="1"/>
     </row>
-    <row r="29" spans="1:96" ht="16.5" thickBot="1">
+    <row r="29" spans="1:96" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="76" t="s">
         <v>25</v>
@@ -4092,7 +4077,7 @@
       <c r="CQ29" s="1"/>
       <c r="CR29" s="1"/>
     </row>
-    <row r="30" spans="1:96">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
@@ -4190,7 +4175,7 @@
       <c r="CQ30" s="1"/>
       <c r="CR30" s="1"/>
     </row>
-    <row r="31" spans="1:96">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="8"/>
       <c r="C31" s="37" t="s">
@@ -4292,7 +4277,7 @@
       <c r="CQ31" s="1"/>
       <c r="CR31" s="1"/>
     </row>
-    <row r="32" spans="1:96">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="38" t="str">
@@ -4396,7 +4381,7 @@
       <c r="CQ32" s="1"/>
       <c r="CR32" s="1"/>
     </row>
-    <row r="33" spans="1:96" ht="12" thickBot="1">
+    <row r="33" spans="1:96" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="10"/>
       <c r="C33" s="3"/>
@@ -4494,7 +4479,7 @@
       <c r="CQ33" s="1"/>
       <c r="CR33" s="1"/>
     </row>
-    <row r="34" spans="1:96">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4592,7 +4577,7 @@
       <c r="CQ34" s="1"/>
       <c r="CR34" s="1"/>
     </row>
-    <row r="35" spans="1:96">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4690,7 +4675,7 @@
       <c r="CQ35" s="1"/>
       <c r="CR35" s="1"/>
     </row>
-    <row r="36" spans="1:96">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4788,24 +4773,24 @@
       <c r="CQ36" s="1"/>
       <c r="CR36" s="1"/>
     </row>
-    <row r="37" spans="1:96" s="1" customFormat="1"/>
-    <row r="38" spans="1:96" s="1" customFormat="1"/>
-    <row r="39" spans="1:96" s="1" customFormat="1"/>
-    <row r="40" spans="1:96" s="1" customFormat="1"/>
-    <row r="41" spans="1:96" s="1" customFormat="1"/>
-    <row r="42" spans="1:96" s="1" customFormat="1"/>
-    <row r="43" spans="1:96" s="1" customFormat="1"/>
-    <row r="44" spans="1:96" s="1" customFormat="1"/>
-    <row r="45" spans="1:96" s="1" customFormat="1"/>
-    <row r="46" spans="1:96" s="1" customFormat="1"/>
-    <row r="47" spans="1:96" s="1" customFormat="1"/>
-    <row r="48" spans="1:96" s="1" customFormat="1"/>
-    <row r="49" spans="2:5" s="1" customFormat="1"/>
-    <row r="50" spans="2:5" s="1" customFormat="1"/>
-    <row r="51" spans="2:5" s="1" customFormat="1"/>
-    <row r="52" spans="2:5" s="1" customFormat="1"/>
-    <row r="53" spans="2:5" s="1" customFormat="1"/>
-    <row r="54" spans="2:5" s="1" customFormat="1">
+    <row r="37" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4840,7 +4825,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -4857,12 +4842,12 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" thickBot="1">
+    <row r="1" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="2" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
@@ -4874,10 +4859,10 @@
         <v>EURCMS</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="12" customHeight="1" thickBot="1">
+    <row r="3" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="60" t="s">
         <v>1</v>
@@ -4910,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="12" thickBot="1">
+    <row r="5" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="C5" s="62" t="s">
         <v>37</v>
@@ -4943,7 +4928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
@@ -4988,7 +4973,7 @@
         <v>EURCMS30Y_5Yask_Quote</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
@@ -5033,7 +5018,7 @@
         <v>EURCMS30Y_10Yask_Quote</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
@@ -5078,7 +5063,7 @@
         <v>EURCMS30Y_15Yask_Quote</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>4</v>
       </c>
@@ -5123,7 +5108,7 @@
         <v>EURCMS30Y_20Yask_Quote</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="12" thickBot="1">
+    <row r="10" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>5</v>
       </c>
@@ -5168,7 +5153,7 @@
         <v>EURCMS30Y_30Yask_Quote</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" s="42" t="e">
         <f>_xll.qlQuoteValue(C6,Trigger)</f>
         <v>#NUM!</v>
@@ -5210,7 +5195,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C14" s="42" t="e">
         <f>_xll.qlQuoteValue(C7,Trigger)</f>
         <v>#NUM!</v>
@@ -5252,7 +5237,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C15" s="42" t="e">
         <f>_xll.qlQuoteValue(C8,Trigger)</f>
         <v>#NUM!</v>
@@ -5294,7 +5279,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C16" s="42" t="e">
         <f>_xll.qlQuoteValue(C9,Trigger)</f>
         <v>#NUM!</v>
@@ -5336,7 +5321,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="42" t="e">
         <f>_xll.qlQuoteValue(C10,Trigger)</f>
         <v>#NUM!</v>

--- a/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_MultiIndexMarket.xlsx
+++ b/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_MultiIndexMarket.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>General Settings</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Currency</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1183,9 @@
       <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>40</v>
+      <c r="D9" s="31" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\050_CalibrateCMSMarket\</v>
       </c>
       <c r="E9" s="51"/>
     </row>
@@ -3782,9 +3780,9 @@
       <c r="A27" s="1"/>
       <c r="B27" s="10"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3" t="str">
+      <c r="D27" s="3" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(CmsMarket)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="1"/>
@@ -4285,8 +4283,8 @@
         <v>EUR_010_MultiIndexMarket.xml</v>
       </c>
       <c r="D32" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D21:D26,SerializationPath&amp;C32,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D21:D26,SerializationPath&amp;C32,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="1"/>
